--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>450.133</v>
+        <v>307.94</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.611</v>
       </c>
       <c r="G2" t="n">
-        <v>0.255</v>
+        <v>0.496</v>
       </c>
       <c r="H2" t="n">
-        <v>21.536</v>
+        <v>16.923</v>
       </c>
       <c r="I2" t="n">
-        <v>19.571</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>297.275</v>
+        <v>281.157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.569</v>
+        <v>0.644</v>
       </c>
       <c r="G3" t="n">
-        <v>0.436</v>
+        <v>0.494</v>
       </c>
       <c r="H3" t="n">
-        <v>18.12</v>
+        <v>16.2</v>
       </c>
       <c r="I3" t="n">
-        <v>17.179</v>
+        <v>17.078</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>273.512</v>
+        <v>317.294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.669</v>
+        <v>0.586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.507</v>
+        <v>0.461</v>
       </c>
       <c r="H4" t="n">
-        <v>15.995</v>
+        <v>17.377</v>
       </c>
       <c r="I4" t="n">
-        <v>16.27</v>
+        <v>17.435</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>253.137</v>
+        <v>274.432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.612</v>
+        <v>0.698</v>
       </c>
       <c r="G5" t="n">
-        <v>0.485</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>17.284</v>
+        <v>14.792</v>
       </c>
       <c r="I5" t="n">
-        <v>16.553</v>
+        <v>16.005</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>282.81</v>
+        <v>267.357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.492</v>
+        <v>0.523</v>
       </c>
       <c r="H6" t="n">
-        <v>15.615</v>
+        <v>15.008</v>
       </c>
       <c r="I6" t="n">
-        <v>16.437</v>
+        <v>16.727</v>
       </c>
     </row>
     <row r="7">
@@ -654,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>262.733</v>
+        <v>217.413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.631</v>
+        <v>0.736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.553</v>
+        <v>0.544</v>
       </c>
       <c r="H7" t="n">
-        <v>16.902</v>
+        <v>13.911</v>
       </c>
       <c r="I7" t="n">
-        <v>15.433</v>
+        <v>16.113</v>
       </c>
     </row>
     <row r="8">
@@ -687,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -697,19 +697,19 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>308.077</v>
+        <v>331.164</v>
       </c>
       <c r="F8" t="n">
-        <v>0.279</v>
+        <v>0.594</v>
       </c>
       <c r="G8" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="H8" t="n">
-        <v>23.583</v>
+        <v>17.266</v>
       </c>
       <c r="I8" t="n">
-        <v>16.997</v>
+        <v>16.981</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -730,19 +730,19 @@
         <v>0.001</v>
       </c>
       <c r="E9" t="n">
-        <v>207.455</v>
+        <v>196.137</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6</v>
+        <v>0.766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.51</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>17.506</v>
+        <v>13.001</v>
       </c>
       <c r="I9" t="n">
-        <v>16.186</v>
+        <v>15.787</v>
       </c>
     </row>
     <row r="10">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>318.882</v>
+        <v>371.184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.573</v>
+        <v>0.514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.404</v>
+        <v>0.294</v>
       </c>
       <c r="H10" t="n">
-        <v>17.649</v>
+        <v>18.852</v>
       </c>
       <c r="I10" t="n">
-        <v>17.872</v>
+        <v>20.334</v>
       </c>
     </row>
     <row r="11">
@@ -790,223 +790,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0.001</v>
       </c>
       <c r="E11" t="n">
-        <v>302.886</v>
+        <v>175.551</v>
       </c>
       <c r="F11" t="n">
-        <v>0.544</v>
+        <v>0.771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.419</v>
+        <v>0.577</v>
       </c>
       <c r="H11" t="n">
-        <v>18.218</v>
+        <v>12.845</v>
       </c>
       <c r="I11" t="n">
-        <v>18.397</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" t="n">
-        <v>281.341</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15.944</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.364</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>235.334</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14.856</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.916</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E14" t="n">
-        <v>248.879</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.152</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16.61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>252.415</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15.483</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16.873</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E16" t="n">
-        <v>289.923</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16.658</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16.714</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>aryl_halide</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>219.133</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.732</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13.911</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.076</v>
+        <v>15.551</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3573,6 +3573,1038 @@
         <v>16.643</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>212.385</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14.202</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="K74" t="n">
+        <v>16.653</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>216.155</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I75" t="n">
+        <v>14.233</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="K75" t="n">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>218.584</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14.226</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="K76" t="n">
+        <v>16.425</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>226.364</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14.418</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K77" t="n">
+        <v>16.466</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>221.295</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14.229</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="K78" t="n">
+        <v>16.217</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>223.117</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I79" t="n">
+        <v>14.447</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="K79" t="n">
+        <v>17.015</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>233.778</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14.642</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="K80" t="n">
+        <v>16.655</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>221.283</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14.282</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="K81" t="n">
+        <v>16.392</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>211.625</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13.205</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15.916</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>160.118</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.237</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15.004</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>221.944</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I84" t="n">
+        <v>14.261</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="K84" t="n">
+        <v>18.457</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>258.571</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15.756</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="K85" t="n">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>281.136</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="I86" t="n">
+        <v>16.553</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="K86" t="n">
+        <v>20.184</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>270.144</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I87" t="n">
+        <v>16.129</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>293.201</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16.763</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="K88" t="n">
+        <v>18.645</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>226.792</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14.697</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="K89" t="n">
+        <v>16.866</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>235.59</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>15.104</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K90" t="n">
+        <v>16.966</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>216.875</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="I91" t="n">
+        <v>14.203</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="K91" t="n">
+        <v>16.022</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>267.155</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.138</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K92" t="n">
+        <v>19.286</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>160.122</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.255</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="K93" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>195.057</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="I94" t="n">
+        <v>13.367</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="K94" t="n">
+        <v>15.917</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>207.858</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="I95" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="K95" t="n">
+        <v>16.753</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>230.094</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="I96" t="n">
+        <v>14.678</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="K96" t="n">
+        <v>16.957</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>aryl_halide_200epochs</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>320.148</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="I97" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K97" t="n">
+        <v>19.092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
